--- a/Project/PowerShell/2024/KW-10/Hashing/paswoerter.xlsx
+++ b/Project/PowerShell/2024/KW-10/Hashing/paswoerter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naemi\BLJ2024NaRos\Project\PowerShell\2024\KW-10\Hashing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1420528-39AB-4764-B1BA-D75F0CBBDDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840A8B3-167B-4EF4-A0E6-67B8C8C8D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31215" yWindow="2400" windowWidth="17250" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>anna</t>
+    <t>dfghjk</t>
+  </si>
+  <si>
+    <t>sdfgh</t>
   </si>
 </sst>
 </file>
@@ -345,15 +348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
